--- a/pidis/expdata/10034.xlsx
+++ b/pidis/expdata/10034.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE72B2-5037-1847-89AB-A619DD7A4F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23420" windowHeight="13360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23420" windowHeight="13360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,12 +45,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>A1d(stat)_u</t>
-  </si>
-  <si>
-    <t>A1d(sys)</t>
-  </si>
-  <si>
     <t>Afalse_u</t>
   </si>
   <si>
@@ -84,13 +79,19 @@
   </si>
   <si>
     <t>SMC</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,6 +104,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,13 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +152,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,16 +422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,787 +448,787 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1E-3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2E-3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3">
         <v>-1.6E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.02</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>1E-3</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>2E-3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0.02</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="P4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1.3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="P5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2.1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
         <v>-0.02</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>1.8E-3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="P6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
         <v>-2.7E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="P7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0.02</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="P8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>7.5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="P9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="3">
         <v>2E-3</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="P10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>14.4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <v>0</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="P11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>0.121</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>20.6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="P12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>26.8</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="P13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>0.24099999999999999</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>34.299999999999997</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>1.8E-3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="P14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>43.9</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.19</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="P15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>0.47899999999999998</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>54.8</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
         <v>0.316</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="3">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>18</v>
+      <c r="P16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
